--- a/data/pca/factorExposure/factorExposure_2011-10-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01091111281181483</v>
+        <v>-0.0142474318607143</v>
       </c>
       <c r="C2">
-        <v>-0.02568532318254203</v>
+        <v>0.01495529448346432</v>
       </c>
       <c r="D2">
-        <v>-0.02065832798151616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02171978745379656</v>
+      </c>
+      <c r="E2">
+        <v>0.01043500217066098</v>
+      </c>
+      <c r="F2">
+        <v>-0.03531079284922845</v>
+      </c>
+      <c r="G2">
+        <v>0.0168847375309614</v>
+      </c>
+      <c r="H2">
+        <v>-0.02376208567586335</v>
+      </c>
+      <c r="I2">
+        <v>-0.02622832261719191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07699357168255558</v>
+        <v>-0.09008793306565405</v>
       </c>
       <c r="C4">
-        <v>-0.05719536159447059</v>
+        <v>-0.004085179506175319</v>
       </c>
       <c r="D4">
-        <v>-0.07808542833162893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08292158812297851</v>
+      </c>
+      <c r="E4">
+        <v>0.005982335159065269</v>
+      </c>
+      <c r="F4">
+        <v>-0.04355939705326313</v>
+      </c>
+      <c r="G4">
+        <v>-0.02308031108232458</v>
+      </c>
+      <c r="H4">
+        <v>0.0387147327388315</v>
+      </c>
+      <c r="I4">
+        <v>-0.04757517010027166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1154163296000406</v>
+        <v>-0.1262169013035122</v>
       </c>
       <c r="C6">
-        <v>-0.05413316940497841</v>
+        <v>0.02626633569339089</v>
       </c>
       <c r="D6">
-        <v>-0.0004359488128474987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02603370586634983</v>
+      </c>
+      <c r="E6">
+        <v>-0.0251942802432298</v>
+      </c>
+      <c r="F6">
+        <v>-0.04781944748744325</v>
+      </c>
+      <c r="G6">
+        <v>-0.0414956735914456</v>
+      </c>
+      <c r="H6">
+        <v>-0.1753736158341229</v>
+      </c>
+      <c r="I6">
+        <v>0.006979817281739658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.05939387589233693</v>
+        <v>-0.06538096891152304</v>
       </c>
       <c r="C7">
-        <v>-0.04290200378533456</v>
+        <v>-0.006961988603304387</v>
       </c>
       <c r="D7">
-        <v>-0.02977183036574602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.06040970556962637</v>
+      </c>
+      <c r="E7">
+        <v>0.01662893666941431</v>
+      </c>
+      <c r="F7">
+        <v>-0.05054012110946718</v>
+      </c>
+      <c r="G7">
+        <v>0.01880196611736504</v>
+      </c>
+      <c r="H7">
+        <v>0.01873075478428974</v>
+      </c>
+      <c r="I7">
+        <v>-0.001292510455419797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.036392640139758</v>
+        <v>-0.04192674824299517</v>
       </c>
       <c r="C8">
-        <v>-0.01327189816937511</v>
+        <v>-0.00633959767710779</v>
       </c>
       <c r="D8">
-        <v>-0.0612886732136064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02931608012183912</v>
+      </c>
+      <c r="E8">
+        <v>0.006540157544068489</v>
+      </c>
+      <c r="F8">
+        <v>-0.07613601208252249</v>
+      </c>
+      <c r="G8">
+        <v>-0.08766562157965828</v>
+      </c>
+      <c r="H8">
+        <v>-0.01732524870855949</v>
+      </c>
+      <c r="I8">
+        <v>-0.09409079515370652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07365913120114867</v>
+        <v>-0.08232846827046864</v>
       </c>
       <c r="C9">
-        <v>-0.04723006728319471</v>
+        <v>-0.007821600236676662</v>
       </c>
       <c r="D9">
-        <v>-0.07113274200443076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.07137389603570501</v>
+      </c>
+      <c r="E9">
+        <v>0.0172826915349163</v>
+      </c>
+      <c r="F9">
+        <v>-0.03887133486008521</v>
+      </c>
+      <c r="G9">
+        <v>-0.03741570950543021</v>
+      </c>
+      <c r="H9">
+        <v>0.03520735355597405</v>
+      </c>
+      <c r="I9">
+        <v>-0.05356732647093261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02356884355631446</v>
+        <v>-0.0532448761845408</v>
       </c>
       <c r="C10">
-        <v>-0.01093268605163542</v>
+        <v>0.1412058429626965</v>
       </c>
       <c r="D10">
-        <v>0.1726199191960152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1344696656595062</v>
+      </c>
+      <c r="E10">
+        <v>0.02461134093344315</v>
+      </c>
+      <c r="F10">
+        <v>-0.05822748830426485</v>
+      </c>
+      <c r="G10">
+        <v>0.03943235511138062</v>
+      </c>
+      <c r="H10">
+        <v>-0.03611089986398387</v>
+      </c>
+      <c r="I10">
+        <v>0.03559111529248539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06779461785331349</v>
+        <v>-0.07271674977770157</v>
       </c>
       <c r="C11">
-        <v>-0.04423358430053465</v>
+        <v>-0.01026549673151238</v>
       </c>
       <c r="D11">
-        <v>-0.05472295189948535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06386126693468752</v>
+      </c>
+      <c r="E11">
+        <v>0.00177163851002407</v>
+      </c>
+      <c r="F11">
+        <v>-0.03946432595863035</v>
+      </c>
+      <c r="G11">
+        <v>-0.04569356763125609</v>
+      </c>
+      <c r="H11">
+        <v>0.05703153870049297</v>
+      </c>
+      <c r="I11">
+        <v>-0.060790398833854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06216730003286462</v>
+        <v>-0.06863627147685664</v>
       </c>
       <c r="C12">
-        <v>-0.05553579358225977</v>
+        <v>0.003511384241727936</v>
       </c>
       <c r="D12">
-        <v>-0.04223777982566617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.060419090826614</v>
+      </c>
+      <c r="E12">
+        <v>0.007932334894694928</v>
+      </c>
+      <c r="F12">
+        <v>-0.02939765522599965</v>
+      </c>
+      <c r="G12">
+        <v>-0.02449841473123127</v>
+      </c>
+      <c r="H12">
+        <v>0.02503185521800748</v>
+      </c>
+      <c r="I12">
+        <v>-0.06333827473526567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06711587378401002</v>
+        <v>-0.06841174247944105</v>
       </c>
       <c r="C13">
-        <v>-0.0474117004349825</v>
+        <v>0.004489677159904038</v>
       </c>
       <c r="D13">
-        <v>-0.04693794998045898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04996000310690726</v>
+      </c>
+      <c r="E13">
+        <v>0.007681720479420891</v>
+      </c>
+      <c r="F13">
+        <v>-0.022454754938895</v>
+      </c>
+      <c r="G13">
+        <v>-0.02811004673412333</v>
+      </c>
+      <c r="H13">
+        <v>0.0518162824139578</v>
+      </c>
+      <c r="I13">
+        <v>-0.06938034477525429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02959934228052796</v>
+        <v>-0.04038034986618039</v>
       </c>
       <c r="C14">
-        <v>-0.0300366865607146</v>
+        <v>0.01709825645365691</v>
       </c>
       <c r="D14">
-        <v>0.001527545781446813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02725659474528222</v>
+      </c>
+      <c r="E14">
+        <v>0.0195398971272433</v>
+      </c>
+      <c r="F14">
+        <v>-0.0203118697219357</v>
+      </c>
+      <c r="G14">
+        <v>-0.01686192738284136</v>
+      </c>
+      <c r="H14">
+        <v>0.07076230326979796</v>
+      </c>
+      <c r="I14">
+        <v>-0.02541722504628001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04303587300117881</v>
+        <v>-0.0406292938728464</v>
       </c>
       <c r="C15">
-        <v>-0.008949259850286618</v>
+        <v>-0.006767677370029193</v>
       </c>
       <c r="D15">
-        <v>-0.02494992100306851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01136745430772466</v>
+      </c>
+      <c r="E15">
+        <v>0.02931518366133943</v>
+      </c>
+      <c r="F15">
+        <v>-0.002718199956968488</v>
+      </c>
+      <c r="G15">
+        <v>-0.029277595500951</v>
+      </c>
+      <c r="H15">
+        <v>0.02890957914490647</v>
+      </c>
+      <c r="I15">
+        <v>0.01320960141069664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05744373025386443</v>
+        <v>-0.06947077110215132</v>
       </c>
       <c r="C16">
-        <v>-0.0425449300461116</v>
+        <v>-0.007595007821194043</v>
       </c>
       <c r="D16">
-        <v>-0.05224382046929631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06653017355069978</v>
+      </c>
+      <c r="E16">
+        <v>0.003027091000092688</v>
+      </c>
+      <c r="F16">
+        <v>-0.0342313368407365</v>
+      </c>
+      <c r="G16">
+        <v>-0.02217393559302093</v>
+      </c>
+      <c r="H16">
+        <v>0.04144023284307469</v>
+      </c>
+      <c r="I16">
+        <v>-0.03948233041845098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06429883604715013</v>
+        <v>-0.06385651933760722</v>
       </c>
       <c r="C20">
-        <v>-0.02882958206804512</v>
+        <v>-0.0129817536347071</v>
       </c>
       <c r="D20">
-        <v>-0.04934232531274603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04180545539918671</v>
+      </c>
+      <c r="E20">
+        <v>0.0003650037987404449</v>
+      </c>
+      <c r="F20">
+        <v>-0.02651101104160926</v>
+      </c>
+      <c r="G20">
+        <v>-0.02134569991689175</v>
+      </c>
+      <c r="H20">
+        <v>0.04406728528150896</v>
+      </c>
+      <c r="I20">
+        <v>-0.0672208688419607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0316877023837031</v>
+        <v>-0.02660335840912612</v>
       </c>
       <c r="C21">
-        <v>-0.01279240507794539</v>
+        <v>-0.009200355931628433</v>
       </c>
       <c r="D21">
-        <v>-0.007913313328000826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01872917783428662</v>
+      </c>
+      <c r="E21">
+        <v>0.03289847319921654</v>
+      </c>
+      <c r="F21">
+        <v>0.008919755506540014</v>
+      </c>
+      <c r="G21">
+        <v>-0.009837833645075397</v>
+      </c>
+      <c r="H21">
+        <v>-0.04267424224694635</v>
+      </c>
+      <c r="I21">
+        <v>0.02153127413577063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.08521110261229632</v>
+        <v>-0.07785379682038539</v>
       </c>
       <c r="C22">
-        <v>-0.08575524142957451</v>
+        <v>-0.0003607130201163186</v>
       </c>
       <c r="D22">
-        <v>-0.1236759366916525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1100458437065592</v>
+      </c>
+      <c r="E22">
+        <v>0.6072070497554531</v>
+      </c>
+      <c r="F22">
+        <v>-0.002036165691329497</v>
+      </c>
+      <c r="G22">
+        <v>0.1980430538818299</v>
+      </c>
+      <c r="H22">
+        <v>-0.130195973144778</v>
+      </c>
+      <c r="I22">
+        <v>0.1256840278636493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.08583268729517106</v>
+        <v>-0.07859362708349794</v>
       </c>
       <c r="C23">
-        <v>-0.08663629319201606</v>
+        <v>8.680640485804159e-05</v>
       </c>
       <c r="D23">
-        <v>-0.1236335908777488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1111129213157297</v>
+      </c>
+      <c r="E23">
+        <v>0.609813112211986</v>
+      </c>
+      <c r="F23">
+        <v>-0.003850127634743568</v>
+      </c>
+      <c r="G23">
+        <v>0.1919401251543008</v>
+      </c>
+      <c r="H23">
+        <v>-0.1296471186009697</v>
+      </c>
+      <c r="I23">
+        <v>0.1274702069443963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07442453296943492</v>
+        <v>-0.07941588807378397</v>
       </c>
       <c r="C24">
-        <v>-0.05292850987579698</v>
+        <v>-0.004204925246063968</v>
       </c>
       <c r="D24">
-        <v>-0.05770799108564309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06737928240688185</v>
+      </c>
+      <c r="E24">
+        <v>0.01028328415811648</v>
+      </c>
+      <c r="F24">
+        <v>-0.0419647454430439</v>
+      </c>
+      <c r="G24">
+        <v>-0.04038672936956487</v>
+      </c>
+      <c r="H24">
+        <v>0.0266310002377918</v>
+      </c>
+      <c r="I24">
+        <v>-0.05381656251280377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07169769354341951</v>
+        <v>-0.07743136141657646</v>
       </c>
       <c r="C25">
-        <v>-0.05866440117622241</v>
+        <v>0.005859272763731973</v>
       </c>
       <c r="D25">
-        <v>-0.05459075934860534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06430524714302033</v>
+      </c>
+      <c r="E25">
+        <v>0.01611140393018342</v>
+      </c>
+      <c r="F25">
+        <v>-0.03695677457496133</v>
+      </c>
+      <c r="G25">
+        <v>-0.04841332869391936</v>
+      </c>
+      <c r="H25">
+        <v>0.03393772836721609</v>
+      </c>
+      <c r="I25">
+        <v>-0.06710443020005633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04540374177513325</v>
+        <v>-0.04660120894214602</v>
       </c>
       <c r="C26">
-        <v>-0.01534358597768588</v>
+        <v>-0.005377907904099445</v>
       </c>
       <c r="D26">
-        <v>-0.0139707759804974</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01883056210659059</v>
+      </c>
+      <c r="E26">
+        <v>0.04173801646423092</v>
+      </c>
+      <c r="F26">
+        <v>-0.02768478248050268</v>
+      </c>
+      <c r="G26">
+        <v>-0.02568414024207995</v>
+      </c>
+      <c r="H26">
+        <v>0.04210079129968856</v>
+      </c>
+      <c r="I26">
+        <v>0.04709129033935792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04329782368582098</v>
+        <v>-0.07427346331446176</v>
       </c>
       <c r="C28">
-        <v>-0.04592431633992435</v>
+        <v>0.2352248119252737</v>
       </c>
       <c r="D28">
-        <v>0.3118603711397235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2127174517568973</v>
+      </c>
+      <c r="E28">
+        <v>0.02563471897936492</v>
+      </c>
+      <c r="F28">
+        <v>-0.05793938217176529</v>
+      </c>
+      <c r="G28">
+        <v>-0.02527002241346782</v>
+      </c>
+      <c r="H28">
+        <v>-0.06543702525032932</v>
+      </c>
+      <c r="I28">
+        <v>0.06408167604877706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0457352817025776</v>
+        <v>-0.05107644630836878</v>
       </c>
       <c r="C29">
-        <v>-0.04038608697695613</v>
+        <v>0.01992596278778823</v>
       </c>
       <c r="D29">
-        <v>-0.0002527173441753259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0289828244799361</v>
+      </c>
+      <c r="E29">
+        <v>0.04382825743275335</v>
+      </c>
+      <c r="F29">
+        <v>-0.0281010949566394</v>
+      </c>
+      <c r="G29">
+        <v>-0.007842442856151318</v>
+      </c>
+      <c r="H29">
+        <v>0.0956078652551227</v>
+      </c>
+      <c r="I29">
+        <v>-0.007168620669452961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1366708389648862</v>
+        <v>-0.1297193298336064</v>
       </c>
       <c r="C30">
-        <v>-0.09772349838645925</v>
+        <v>0.0100504972847272</v>
       </c>
       <c r="D30">
-        <v>-0.09754982922033155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09769129859532709</v>
+      </c>
+      <c r="E30">
+        <v>0.05884457917226479</v>
+      </c>
+      <c r="F30">
+        <v>-0.02925136186936414</v>
+      </c>
+      <c r="G30">
+        <v>-0.06600316451018864</v>
+      </c>
+      <c r="H30">
+        <v>-0.06078618770616947</v>
+      </c>
+      <c r="I30">
+        <v>-0.1734908221373435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04810018824002724</v>
+        <v>-0.04739956208736799</v>
       </c>
       <c r="C31">
-        <v>-0.0249201374684858</v>
+        <v>-0.009526726971718238</v>
       </c>
       <c r="D31">
-        <v>-0.01947583113717869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03651621994569059</v>
+      </c>
+      <c r="E31">
+        <v>0.0186904679623972</v>
+      </c>
+      <c r="F31">
+        <v>-0.01397137688236779</v>
+      </c>
+      <c r="G31">
+        <v>0.0006858782110307489</v>
+      </c>
+      <c r="H31">
+        <v>0.07043752145152944</v>
+      </c>
+      <c r="I31">
+        <v>-0.01279053517474755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03694651620136905</v>
+        <v>-0.04184446850721207</v>
       </c>
       <c r="C32">
-        <v>-0.02749139763537713</v>
+        <v>0.01683859220612247</v>
       </c>
       <c r="D32">
-        <v>-0.03177912034125065</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02007718073277681</v>
+      </c>
+      <c r="E32">
+        <v>0.04384599915953637</v>
+      </c>
+      <c r="F32">
+        <v>0.01485586992427988</v>
+      </c>
+      <c r="G32">
+        <v>-0.03095493842208241</v>
+      </c>
+      <c r="H32">
+        <v>-0.01404297650891791</v>
+      </c>
+      <c r="I32">
+        <v>-0.01254762582181287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.08834270705922737</v>
+        <v>-0.09450233542355219</v>
       </c>
       <c r="C33">
-        <v>-0.04613880261192844</v>
+        <v>-0.007059992639722435</v>
       </c>
       <c r="D33">
-        <v>-0.0474038791040443</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05693272755846798</v>
+      </c>
+      <c r="E33">
+        <v>0.01403916210275116</v>
+      </c>
+      <c r="F33">
+        <v>-0.005363849585292782</v>
+      </c>
+      <c r="G33">
+        <v>-0.009610628427192291</v>
+      </c>
+      <c r="H33">
+        <v>0.05979985843215704</v>
+      </c>
+      <c r="I33">
+        <v>-0.05800603339288354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05876666120283618</v>
+        <v>-0.06680667503015741</v>
       </c>
       <c r="C34">
-        <v>-0.02850166284760354</v>
+        <v>-0.01238518844137069</v>
       </c>
       <c r="D34">
-        <v>-0.05133935917101837</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04738757259668266</v>
+      </c>
+      <c r="E34">
+        <v>0.01193747937291379</v>
+      </c>
+      <c r="F34">
+        <v>-0.0255848362779067</v>
+      </c>
+      <c r="G34">
+        <v>-0.02807209979241079</v>
+      </c>
+      <c r="H34">
+        <v>0.04694258656464993</v>
+      </c>
+      <c r="I34">
+        <v>-0.05190614294465522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03603030643568643</v>
+        <v>-0.03650945325620054</v>
       </c>
       <c r="C35">
-        <v>-0.01853651351017114</v>
+        <v>-0.001270209670552024</v>
       </c>
       <c r="D35">
-        <v>-0.01710659032275988</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02182701410684939</v>
+      </c>
+      <c r="E35">
+        <v>0.01786898836798903</v>
+      </c>
+      <c r="F35">
+        <v>0.01291674404532599</v>
+      </c>
+      <c r="G35">
+        <v>-0.001706479621983303</v>
+      </c>
+      <c r="H35">
+        <v>0.03397120541098133</v>
+      </c>
+      <c r="I35">
+        <v>-0.02929950389671316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.02747304381829752</v>
+        <v>-0.02881975240444966</v>
       </c>
       <c r="C36">
-        <v>-0.02047801426710938</v>
+        <v>0.001688660784978646</v>
       </c>
       <c r="D36">
-        <v>-0.0184599792752797</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02314582140179699</v>
+      </c>
+      <c r="E36">
+        <v>0.03171991830296403</v>
+      </c>
+      <c r="F36">
+        <v>-0.03306766406080519</v>
+      </c>
+      <c r="G36">
+        <v>-0.016054906273356</v>
+      </c>
+      <c r="H36">
+        <v>0.04095297032946671</v>
+      </c>
+      <c r="I36">
+        <v>-0.03448044510368502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05970608442651797</v>
+        <v>-0.0524789561577739</v>
       </c>
       <c r="C38">
-        <v>-0.01166895526008474</v>
+        <v>-0.01806655895098822</v>
       </c>
       <c r="D38">
-        <v>-0.002514164541183885</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01984317882832258</v>
+      </c>
+      <c r="E38">
+        <v>0.05152612541187369</v>
+      </c>
+      <c r="F38">
+        <v>0.001630711896225663</v>
+      </c>
+      <c r="G38">
+        <v>0.005382899281565515</v>
+      </c>
+      <c r="H38">
+        <v>0.02681200887077165</v>
+      </c>
+      <c r="I38">
+        <v>-0.01476997038976902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09661808202043803</v>
+        <v>-0.1036407176926366</v>
       </c>
       <c r="C39">
-        <v>-0.07495171781964093</v>
+        <v>0.01325894859554969</v>
       </c>
       <c r="D39">
-        <v>-0.03845348902689173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07679205292964869</v>
+      </c>
+      <c r="E39">
+        <v>0.006680206929764328</v>
+      </c>
+      <c r="F39">
+        <v>-0.01442908496018301</v>
+      </c>
+      <c r="G39">
+        <v>-0.04463674595007442</v>
+      </c>
+      <c r="H39">
+        <v>0.008514316861416923</v>
+      </c>
+      <c r="I39">
+        <v>-0.06338661966795373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07971634791842809</v>
+        <v>-0.05796231930500503</v>
       </c>
       <c r="C40">
-        <v>-0.04066478592174131</v>
+        <v>-0.01559660298055482</v>
       </c>
       <c r="D40">
-        <v>-0.01396314639686687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.035283333130548</v>
+      </c>
+      <c r="E40">
+        <v>0.04092394384341693</v>
+      </c>
+      <c r="F40">
+        <v>0.03035919055038734</v>
+      </c>
+      <c r="G40">
+        <v>-0.07641482572148003</v>
+      </c>
+      <c r="H40">
+        <v>-0.0729526260715516</v>
+      </c>
+      <c r="I40">
+        <v>-0.2735224289660099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.04849641004382618</v>
+        <v>-0.04640248289561495</v>
       </c>
       <c r="C41">
-        <v>-0.01772541066867488</v>
+        <v>-0.01638616388478062</v>
       </c>
       <c r="D41">
-        <v>-0.0306433907331491</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03080263649951857</v>
+      </c>
+      <c r="E41">
+        <v>0.002771329759479533</v>
+      </c>
+      <c r="F41">
+        <v>0.01458683203290014</v>
+      </c>
+      <c r="G41">
+        <v>-0.005837946041843954</v>
+      </c>
+      <c r="H41">
+        <v>0.03385482409196092</v>
+      </c>
+      <c r="I41">
+        <v>-0.01382031053183262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05577888679507079</v>
+        <v>-0.05969666138886257</v>
       </c>
       <c r="C43">
-        <v>-0.03207056218401939</v>
+        <v>-0.0008774177080304288</v>
       </c>
       <c r="D43">
-        <v>-0.005017771471339755</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03654516567771629</v>
+      </c>
+      <c r="E43">
+        <v>0.0176806655852495</v>
+      </c>
+      <c r="F43">
+        <v>-0.01685728492433174</v>
+      </c>
+      <c r="G43">
+        <v>0.01361327895769417</v>
+      </c>
+      <c r="H43">
+        <v>0.05849012022229499</v>
+      </c>
+      <c r="I43">
+        <v>0.001568234508429217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09336756430086447</v>
+        <v>-0.09241132839882707</v>
       </c>
       <c r="C44">
-        <v>-0.03646659008898327</v>
+        <v>-0.01619708546237836</v>
       </c>
       <c r="D44">
-        <v>-0.05141350749603736</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05515874018195677</v>
+      </c>
+      <c r="E44">
+        <v>0.06719891797635359</v>
+      </c>
+      <c r="F44">
+        <v>-0.0913126342074923</v>
+      </c>
+      <c r="G44">
+        <v>-0.07944421998973816</v>
+      </c>
+      <c r="H44">
+        <v>0.04878179439595796</v>
+      </c>
+      <c r="I44">
+        <v>-0.1079961516701413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02776665905109562</v>
+        <v>-0.04025687159012662</v>
       </c>
       <c r="C46">
-        <v>-0.0227566019894735</v>
+        <v>-0.001293430433082149</v>
       </c>
       <c r="D46">
-        <v>-0.03011621755942352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04160486015940881</v>
+      </c>
+      <c r="E46">
+        <v>0.02826434786098244</v>
+      </c>
+      <c r="F46">
+        <v>-0.02014446024132202</v>
+      </c>
+      <c r="G46">
+        <v>0.004006614886094333</v>
+      </c>
+      <c r="H46">
+        <v>0.03777412117959782</v>
+      </c>
+      <c r="I46">
+        <v>-0.00631203865783704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03799699943203146</v>
+        <v>-0.04411469452268782</v>
       </c>
       <c r="C47">
-        <v>-0.02311702046383297</v>
+        <v>0.008836480296071252</v>
       </c>
       <c r="D47">
-        <v>0.009628956928462587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01799810435264039</v>
+      </c>
+      <c r="E47">
+        <v>0.04018511990732813</v>
+      </c>
+      <c r="F47">
+        <v>0.001154597613185852</v>
+      </c>
+      <c r="G47">
+        <v>0.02775603744808994</v>
+      </c>
+      <c r="H47">
+        <v>0.03124640410604721</v>
+      </c>
+      <c r="I47">
+        <v>-0.04539923744830815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.0393194629758303</v>
+        <v>-0.04105193480749905</v>
       </c>
       <c r="C48">
-        <v>-0.02962905754349601</v>
+        <v>0.005931042429437549</v>
       </c>
       <c r="D48">
-        <v>-0.0276786859483729</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02530755723621477</v>
+      </c>
+      <c r="E48">
+        <v>0.0381859823593335</v>
+      </c>
+      <c r="F48">
+        <v>-0.01443109628870747</v>
+      </c>
+      <c r="G48">
+        <v>-0.0213959644841977</v>
+      </c>
+      <c r="H48">
+        <v>0.01805814214971735</v>
+      </c>
+      <c r="I48">
+        <v>-0.006813351330325423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1651764144549549</v>
+        <v>-0.2002551019089986</v>
       </c>
       <c r="C49">
-        <v>-0.04380570626495514</v>
+        <v>0.01090235116076092</v>
       </c>
       <c r="D49">
-        <v>-0.01208140401149616</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03492941279459183</v>
+      </c>
+      <c r="E49">
+        <v>-0.1805378561772609</v>
+      </c>
+      <c r="F49">
+        <v>-0.005599939610004377</v>
+      </c>
+      <c r="G49">
+        <v>0.1578131285427154</v>
+      </c>
+      <c r="H49">
+        <v>-0.2329406188423765</v>
+      </c>
+      <c r="I49">
+        <v>-0.01072543967606219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04566698865939979</v>
+        <v>-0.04888790877918763</v>
       </c>
       <c r="C50">
-        <v>-0.03166062583468551</v>
+        <v>-0.001354080472709025</v>
       </c>
       <c r="D50">
-        <v>-0.03013204931677535</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04051827625134168</v>
+      </c>
+      <c r="E50">
+        <v>0.02324059658195958</v>
+      </c>
+      <c r="F50">
+        <v>-0.008983035230634415</v>
+      </c>
+      <c r="G50">
+        <v>-0.007370061968667536</v>
+      </c>
+      <c r="H50">
+        <v>0.07304435212524731</v>
+      </c>
+      <c r="I50">
+        <v>0.009763831932629429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02424931527702185</v>
+        <v>-0.03397633361481303</v>
       </c>
       <c r="C51">
-        <v>-0.005194844773674353</v>
+        <v>0.004687109992701499</v>
       </c>
       <c r="D51">
-        <v>0.004518087037491509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001857957808471675</v>
+      </c>
+      <c r="E51">
+        <v>0.003976052595072661</v>
+      </c>
+      <c r="F51">
+        <v>-0.01491625733794786</v>
+      </c>
+      <c r="G51">
+        <v>0.0213726652672026</v>
+      </c>
+      <c r="H51">
+        <v>-0.02325926805862708</v>
+      </c>
+      <c r="I51">
+        <v>-0.001455396896845267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1522313551327516</v>
+        <v>-0.1603744776722534</v>
       </c>
       <c r="C53">
-        <v>-0.0806878221833132</v>
+        <v>0.0353801056898865</v>
       </c>
       <c r="D53">
-        <v>0.0107195541566677</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04440160658419029</v>
+      </c>
+      <c r="E53">
+        <v>-0.03257602142576388</v>
+      </c>
+      <c r="F53">
+        <v>0.004549686841920813</v>
+      </c>
+      <c r="G53">
+        <v>0.002255401981118501</v>
+      </c>
+      <c r="H53">
+        <v>0.1970280416789628</v>
+      </c>
+      <c r="I53">
+        <v>0.02901094152370408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.05914135054456852</v>
+        <v>-0.06098564638069024</v>
       </c>
       <c r="C54">
-        <v>-0.03153599181516851</v>
+        <v>0.01255986553287709</v>
       </c>
       <c r="D54">
-        <v>-0.01877766802562025</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02150342412435828</v>
+      </c>
+      <c r="E54">
+        <v>0.0559646334346959</v>
+      </c>
+      <c r="F54">
+        <v>-0.02828230253999486</v>
+      </c>
+      <c r="G54">
+        <v>-0.0598061323176657</v>
+      </c>
+      <c r="H54">
+        <v>0.04237811429261155</v>
+      </c>
+      <c r="I54">
+        <v>-0.05555663856824347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09829435368773544</v>
+        <v>-0.1003669012424093</v>
       </c>
       <c r="C55">
-        <v>-0.05234143185305526</v>
+        <v>0.01200750547638744</v>
       </c>
       <c r="D55">
-        <v>-0.007613997644055382</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03979400530904499</v>
+      </c>
+      <c r="E55">
+        <v>-0.007493899420619578</v>
+      </c>
+      <c r="F55">
+        <v>-0.01787289514109476</v>
+      </c>
+      <c r="G55">
+        <v>-0.01995798096040389</v>
+      </c>
+      <c r="H55">
+        <v>0.1569499950803546</v>
+      </c>
+      <c r="I55">
+        <v>-0.01395817682814817</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1433665376425907</v>
+        <v>-0.151599524675813</v>
       </c>
       <c r="C56">
-        <v>-0.09020094166836666</v>
+        <v>0.02848655082294421</v>
       </c>
       <c r="D56">
-        <v>0.00653865451409063</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06563669028987051</v>
+      </c>
+      <c r="E56">
+        <v>-0.02068193720229321</v>
+      </c>
+      <c r="F56">
+        <v>-0.01190215453145722</v>
+      </c>
+      <c r="G56">
+        <v>-0.01006300251294843</v>
+      </c>
+      <c r="H56">
+        <v>0.1980648726787022</v>
+      </c>
+      <c r="I56">
+        <v>0.06159603801447924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1190837829770461</v>
+        <v>-0.08954331343383798</v>
       </c>
       <c r="C58">
-        <v>0.01659967361499778</v>
+        <v>-0.06895483852840542</v>
       </c>
       <c r="D58">
-        <v>-0.06149496876792784</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0007918850235695523</v>
+      </c>
+      <c r="E58">
+        <v>0.1064628596863647</v>
+      </c>
+      <c r="F58">
+        <v>-0.03904911982972717</v>
+      </c>
+      <c r="G58">
+        <v>0.04958805652138151</v>
+      </c>
+      <c r="H58">
+        <v>-0.1744186649650964</v>
+      </c>
+      <c r="I58">
+        <v>-0.4912484883882442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1238090548937286</v>
+        <v>-0.1517977651403953</v>
       </c>
       <c r="C59">
-        <v>-0.05196142375100232</v>
+        <v>0.2584223215560447</v>
       </c>
       <c r="D59">
-        <v>0.4261029790902764</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2589816377305245</v>
+      </c>
+      <c r="E59">
+        <v>0.02530341398588011</v>
+      </c>
+      <c r="F59">
+        <v>-0.01218464626868002</v>
+      </c>
+      <c r="G59">
+        <v>-0.009589440147208866</v>
+      </c>
+      <c r="H59">
+        <v>0.02198262000946982</v>
+      </c>
+      <c r="I59">
+        <v>0.01470090821954159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.211989438191223</v>
+        <v>-0.2414639952025595</v>
       </c>
       <c r="C60">
-        <v>-0.09447577060779037</v>
+        <v>0.03203778446407442</v>
       </c>
       <c r="D60">
-        <v>0.006023006608062507</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.06375799239583586</v>
+      </c>
+      <c r="E60">
+        <v>-0.1301264056762647</v>
+      </c>
+      <c r="F60">
+        <v>-0.03790953118688862</v>
+      </c>
+      <c r="G60">
+        <v>0.03403591597584819</v>
+      </c>
+      <c r="H60">
+        <v>-0.1577672080834884</v>
+      </c>
+      <c r="I60">
+        <v>0.03472920260131829</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07573095690495882</v>
+        <v>-0.08368527460334996</v>
       </c>
       <c r="C61">
-        <v>-0.04937923197342786</v>
+        <v>0.005832361245653477</v>
       </c>
       <c r="D61">
-        <v>-0.02887434920748919</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05445086082722768</v>
+      </c>
+      <c r="E61">
+        <v>0.006974960290031003</v>
+      </c>
+      <c r="F61">
+        <v>-0.02079858932989455</v>
+      </c>
+      <c r="G61">
+        <v>-0.03727381718032852</v>
+      </c>
+      <c r="H61">
+        <v>0.06929035730401982</v>
+      </c>
+      <c r="I61">
+        <v>-0.02371173803585022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1305389455867384</v>
+        <v>-0.138754742913015</v>
       </c>
       <c r="C62">
-        <v>-0.0507862573392528</v>
+        <v>0.0004265589356223378</v>
       </c>
       <c r="D62">
-        <v>0.004422642857920489</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04536374029828431</v>
+      </c>
+      <c r="E62">
+        <v>-0.04043998556120265</v>
+      </c>
+      <c r="F62">
+        <v>0.02799230242697394</v>
+      </c>
+      <c r="G62">
+        <v>-0.03751274769255602</v>
+      </c>
+      <c r="H62">
+        <v>0.1917225670623835</v>
+      </c>
+      <c r="I62">
+        <v>0.1116896941877351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05231755180878928</v>
+        <v>-0.04983693871845107</v>
       </c>
       <c r="C63">
-        <v>-0.02759358016507596</v>
+        <v>0.001431042130667048</v>
       </c>
       <c r="D63">
-        <v>-0.02536874180931999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02763799342350873</v>
+      </c>
+      <c r="E63">
+        <v>0.03380296382645528</v>
+      </c>
+      <c r="F63">
+        <v>-0.005192602264707758</v>
+      </c>
+      <c r="G63">
+        <v>-0.04127667464523446</v>
+      </c>
+      <c r="H63">
+        <v>0.03549615012477411</v>
+      </c>
+      <c r="I63">
+        <v>0.01132114489555346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1076296738039228</v>
+        <v>-0.1118097826233933</v>
       </c>
       <c r="C64">
-        <v>-0.04561363189272896</v>
+        <v>0.009101498737422734</v>
       </c>
       <c r="D64">
-        <v>-0.01529439838761395</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03745668789172485</v>
+      </c>
+      <c r="E64">
+        <v>0.03139218084947989</v>
+      </c>
+      <c r="F64">
+        <v>-0.0464743666771029</v>
+      </c>
+      <c r="G64">
+        <v>-0.05517852607940519</v>
+      </c>
+      <c r="H64">
+        <v>0.008225434194545586</v>
+      </c>
+      <c r="I64">
+        <v>-0.02323463371480925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1261135467860018</v>
+        <v>-0.1314938401543556</v>
       </c>
       <c r="C65">
-        <v>-0.05902125188467654</v>
+        <v>0.03052275807102492</v>
       </c>
       <c r="D65">
-        <v>-0.007168117588972867</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03063402156090576</v>
+      </c>
+      <c r="E65">
+        <v>-0.006639235980876284</v>
+      </c>
+      <c r="F65">
+        <v>-0.03513613633375674</v>
+      </c>
+      <c r="G65">
+        <v>-0.07651253710510607</v>
+      </c>
+      <c r="H65">
+        <v>-0.1919502388767547</v>
+      </c>
+      <c r="I65">
+        <v>-0.002905587238637335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1480577685377974</v>
+        <v>-0.1497109814127594</v>
       </c>
       <c r="C66">
-        <v>-0.09507443909663812</v>
+        <v>-0.006487171887124359</v>
       </c>
       <c r="D66">
-        <v>-0.08263273115100775</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1177041827460383</v>
+      </c>
+      <c r="E66">
+        <v>-0.02790644485414207</v>
+      </c>
+      <c r="F66">
+        <v>-0.0008084465635199861</v>
+      </c>
+      <c r="G66">
+        <v>-0.08381092480637006</v>
+      </c>
+      <c r="H66">
+        <v>0.07174657615222393</v>
+      </c>
+      <c r="I66">
+        <v>-0.07139340825908071</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.08726712993033818</v>
+        <v>-0.09080582953868614</v>
       </c>
       <c r="C67">
-        <v>-0.0187545770170838</v>
+        <v>-0.01830690709773225</v>
       </c>
       <c r="D67">
-        <v>-0.01070654677873544</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03213085035016601</v>
+      </c>
+      <c r="E67">
+        <v>0.0209316418973823</v>
+      </c>
+      <c r="F67">
+        <v>-0.009679132831199632</v>
+      </c>
+      <c r="G67">
+        <v>0.02456475478019205</v>
+      </c>
+      <c r="H67">
+        <v>0.01963189931649833</v>
+      </c>
+      <c r="I67">
+        <v>0.02044295172473321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04820783461048778</v>
+        <v>-0.06565970548703826</v>
       </c>
       <c r="C68">
-        <v>-0.02705321009257981</v>
+        <v>0.1982333210869179</v>
       </c>
       <c r="D68">
-        <v>0.2588723667249093</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.1978298465758097</v>
+      </c>
+      <c r="E68">
+        <v>0.04279253558582301</v>
+      </c>
+      <c r="F68">
+        <v>-0.0175486765422333</v>
+      </c>
+      <c r="G68">
+        <v>-0.005340971000702229</v>
+      </c>
+      <c r="H68">
+        <v>0.0194428137095229</v>
+      </c>
+      <c r="I68">
+        <v>-0.02523883535583819</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05991449495374645</v>
+        <v>-0.05483005092453371</v>
       </c>
       <c r="C69">
-        <v>-0.02583716076111495</v>
+        <v>-0.005868068792033403</v>
       </c>
       <c r="D69">
-        <v>-0.01848467030527903</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02407325906374617</v>
+      </c>
+      <c r="E69">
+        <v>0.02291295164529876</v>
+      </c>
+      <c r="F69">
+        <v>0.01403909137333664</v>
+      </c>
+      <c r="G69">
+        <v>-0.002898002561481717</v>
+      </c>
+      <c r="H69">
+        <v>0.04277700318442165</v>
+      </c>
+      <c r="I69">
+        <v>-0.01523774911213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.01222612004027083</v>
+        <v>-0.0324711532256733</v>
       </c>
       <c r="C70">
-        <v>0.003436626442791795</v>
+        <v>-0.001545764666180159</v>
       </c>
       <c r="D70">
-        <v>0.01341962557209956</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005323828035866938</v>
+      </c>
+      <c r="E70">
+        <v>-0.02367232390300834</v>
+      </c>
+      <c r="F70">
+        <v>0.008152128301489056</v>
+      </c>
+      <c r="G70">
+        <v>0.02504125335499965</v>
+      </c>
+      <c r="H70">
+        <v>-0.01794991497936743</v>
+      </c>
+      <c r="I70">
+        <v>0.05903742856562498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04583548392257844</v>
+        <v>-0.07150533014511527</v>
       </c>
       <c r="C71">
-        <v>-0.0228102766071674</v>
+        <v>0.2141986460590305</v>
       </c>
       <c r="D71">
-        <v>0.2886737891350555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2142833980628804</v>
+      </c>
+      <c r="E71">
+        <v>0.03566738906086686</v>
+      </c>
+      <c r="F71">
+        <v>-0.04499382723263023</v>
+      </c>
+      <c r="G71">
+        <v>-0.004956105390145004</v>
+      </c>
+      <c r="H71">
+        <v>0.01912645474509442</v>
+      </c>
+      <c r="I71">
+        <v>-0.02487863766328078</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1418974039914018</v>
+        <v>-0.1412246623651409</v>
       </c>
       <c r="C72">
-        <v>-0.06072719955189011</v>
+        <v>0.0264083905555137</v>
       </c>
       <c r="D72">
-        <v>0.02804825415133584</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01391464037439979</v>
+      </c>
+      <c r="E72">
+        <v>-0.0294981577465335</v>
+      </c>
+      <c r="F72">
+        <v>0.1626980288921152</v>
+      </c>
+      <c r="G72">
+        <v>-0.1179112876042912</v>
+      </c>
+      <c r="H72">
+        <v>-0.005469898720998095</v>
+      </c>
+      <c r="I72">
+        <v>-0.04255008642815274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2751494641282232</v>
+        <v>-0.277537018308722</v>
       </c>
       <c r="C73">
-        <v>-0.08347300874231144</v>
+        <v>-0.03792197189215595</v>
       </c>
       <c r="D73">
-        <v>-0.04838149239871067</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08502092645043813</v>
+      </c>
+      <c r="E73">
+        <v>-0.2830616568387552</v>
+      </c>
+      <c r="F73">
+        <v>-0.02971951531154567</v>
+      </c>
+      <c r="G73">
+        <v>0.256844924743021</v>
+      </c>
+      <c r="H73">
+        <v>-0.3596788958121437</v>
+      </c>
+      <c r="I73">
+        <v>-0.214518589711107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07957432842953951</v>
+        <v>-0.09087705186382666</v>
       </c>
       <c r="C74">
-        <v>-0.07677769638723725</v>
+        <v>0.02815144589214136</v>
       </c>
       <c r="D74">
-        <v>-0.001085736046289716</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06407009403389836</v>
+      </c>
+      <c r="E74">
+        <v>-0.01198019403475376</v>
+      </c>
+      <c r="F74">
+        <v>0.001135915830910438</v>
+      </c>
+      <c r="G74">
+        <v>0.02883706443824415</v>
+      </c>
+      <c r="H74">
+        <v>0.1313722995175092</v>
+      </c>
+      <c r="I74">
+        <v>-0.02589098161163453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1079415791073995</v>
+        <v>-0.1042379803693279</v>
       </c>
       <c r="C75">
-        <v>-0.04820711921621865</v>
+        <v>-0.001239411818622947</v>
       </c>
       <c r="D75">
-        <v>-0.002974317808396887</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03203026010767607</v>
+      </c>
+      <c r="E75">
+        <v>-0.0006347785485367546</v>
+      </c>
+      <c r="F75">
+        <v>0.001095129004462291</v>
+      </c>
+      <c r="G75">
+        <v>0.004093124274044737</v>
+      </c>
+      <c r="H75">
+        <v>0.1145752244930531</v>
+      </c>
+      <c r="I75">
+        <v>0.05429942402017909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1260659064139424</v>
+        <v>-0.1344864901120759</v>
       </c>
       <c r="C76">
-        <v>-0.06954554813452836</v>
+        <v>0.009866015694885238</v>
       </c>
       <c r="D76">
-        <v>-0.01939507455795511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06897201380889631</v>
+      </c>
+      <c r="E76">
+        <v>-0.003175712169351854</v>
+      </c>
+      <c r="F76">
+        <v>-0.03804787434522451</v>
+      </c>
+      <c r="G76">
+        <v>-0.01779651784669884</v>
+      </c>
+      <c r="H76">
+        <v>0.2561504568736674</v>
+      </c>
+      <c r="I76">
+        <v>0.06958094141691538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.123234741372007</v>
+        <v>-0.09849419909486196</v>
       </c>
       <c r="C77">
-        <v>-0.01934928235736406</v>
+        <v>-0.0430302755296634</v>
       </c>
       <c r="D77">
-        <v>-0.06854275643353726</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02595348249643539</v>
+      </c>
+      <c r="E77">
+        <v>0.05572618856396733</v>
+      </c>
+      <c r="F77">
+        <v>-0.0881472556476218</v>
+      </c>
+      <c r="G77">
+        <v>-0.7750586188657124</v>
+      </c>
+      <c r="H77">
+        <v>-0.3077434792717686</v>
+      </c>
+      <c r="I77">
+        <v>0.2930542834275584</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1067602435929786</v>
+        <v>-0.1498804535871566</v>
       </c>
       <c r="C78">
-        <v>-0.04876409416204758</v>
+        <v>-0.001879785542557683</v>
       </c>
       <c r="D78">
-        <v>-0.07821055952338367</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08892102574763121</v>
+      </c>
+      <c r="E78">
+        <v>0.04944881069291328</v>
+      </c>
+      <c r="F78">
+        <v>-0.05912843551156178</v>
+      </c>
+      <c r="G78">
+        <v>-0.02892923367324797</v>
+      </c>
+      <c r="H78">
+        <v>-0.1071071972771355</v>
+      </c>
+      <c r="I78">
+        <v>-0.07029521946627819</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1365622857378661</v>
+        <v>-0.1420155858866935</v>
       </c>
       <c r="C79">
-        <v>-0.06218865267929595</v>
+        <v>0.001342768736879743</v>
       </c>
       <c r="D79">
-        <v>-0.03144665049942611</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05693869883293169</v>
+      </c>
+      <c r="E79">
+        <v>-0.01391844080966604</v>
+      </c>
+      <c r="F79">
+        <v>-0.02002538476785394</v>
+      </c>
+      <c r="G79">
+        <v>-0.02275737092570811</v>
+      </c>
+      <c r="H79">
+        <v>0.1748266816380854</v>
+      </c>
+      <c r="I79">
+        <v>0.03177874645439434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03361694353602353</v>
+        <v>-0.03864916344746262</v>
       </c>
       <c r="C80">
-        <v>-0.02475714928934473</v>
+        <v>0.008706992961531403</v>
       </c>
       <c r="D80">
-        <v>-0.02478719056937281</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02084659156144959</v>
+      </c>
+      <c r="E80">
+        <v>-0.04543615203335458</v>
+      </c>
+      <c r="F80">
+        <v>0.002050511101514263</v>
+      </c>
+      <c r="G80">
+        <v>0.01475748615544302</v>
+      </c>
+      <c r="H80">
+        <v>0.02170003095088239</v>
+      </c>
+      <c r="I80">
+        <v>-0.0947610832897984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1280754275440982</v>
+        <v>-0.1289881801237614</v>
       </c>
       <c r="C81">
-        <v>-0.0742170235552579</v>
+        <v>0.01837709219050395</v>
       </c>
       <c r="D81">
-        <v>-0.01179434169361458</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04972647490792829</v>
+      </c>
+      <c r="E81">
+        <v>-0.01096229235617051</v>
+      </c>
+      <c r="F81">
+        <v>-0.02173238485655133</v>
+      </c>
+      <c r="G81">
+        <v>-0.004166793408255038</v>
+      </c>
+      <c r="H81">
+        <v>0.1631010037115734</v>
+      </c>
+      <c r="I81">
+        <v>-0.003109942999212903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1280808409171421</v>
+        <v>-0.1297056677099264</v>
       </c>
       <c r="C82">
-        <v>-0.06756741394967629</v>
+        <v>0.01909648295134969</v>
       </c>
       <c r="D82">
-        <v>-0.00360479468213977</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04735550920931601</v>
+      </c>
+      <c r="E82">
+        <v>-0.02304296037610742</v>
+      </c>
+      <c r="F82">
+        <v>-0.03333029071993739</v>
+      </c>
+      <c r="G82">
+        <v>0.004367579498156663</v>
+      </c>
+      <c r="H82">
+        <v>0.2363330035093645</v>
+      </c>
+      <c r="I82">
+        <v>0.07054620855480501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06500439773740696</v>
+        <v>-0.07949995567097434</v>
       </c>
       <c r="C83">
-        <v>0.02639546820452632</v>
+        <v>-0.04341591379735187</v>
       </c>
       <c r="D83">
-        <v>-0.01986047048271099</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0005474192453629282</v>
+      </c>
+      <c r="E83">
+        <v>0.02150566936210357</v>
+      </c>
+      <c r="F83">
+        <v>-0.0400712185966127</v>
+      </c>
+      <c r="G83">
+        <v>0.05193282974988971</v>
+      </c>
+      <c r="H83">
+        <v>-0.01592160850996404</v>
+      </c>
+      <c r="I83">
+        <v>-0.07981083818441199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.02976755193371164</v>
+        <v>-0.03253748300131959</v>
       </c>
       <c r="C84">
-        <v>-0.04414054416752371</v>
+        <v>0.002690244848816168</v>
       </c>
       <c r="D84">
-        <v>-0.03120703934312823</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.05134135119474029</v>
+      </c>
+      <c r="E84">
+        <v>0.02189481838316707</v>
+      </c>
+      <c r="F84">
+        <v>0.04134105547181021</v>
+      </c>
+      <c r="G84">
+        <v>0.016946854860252</v>
+      </c>
+      <c r="H84">
+        <v>0.03038956460026089</v>
+      </c>
+      <c r="I84">
+        <v>-0.05525917646273473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.114095102322235</v>
+        <v>-0.1199190247932254</v>
       </c>
       <c r="C85">
-        <v>-0.04278649967278979</v>
+        <v>-0.006170090994956446</v>
       </c>
       <c r="D85">
-        <v>-0.04312211109084688</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04595266155653126</v>
+      </c>
+      <c r="E85">
+        <v>0.003691685476332662</v>
+      </c>
+      <c r="F85">
+        <v>-0.04547871868805558</v>
+      </c>
+      <c r="G85">
+        <v>-0.002965104257631675</v>
+      </c>
+      <c r="H85">
+        <v>0.1538939388272137</v>
+      </c>
+      <c r="I85">
+        <v>0.01428292930825747</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04891440743681493</v>
+        <v>-0.04968809994785014</v>
       </c>
       <c r="C86">
-        <v>-0.03386461238692535</v>
+        <v>-0.00901062988886824</v>
       </c>
       <c r="D86">
-        <v>-0.0673534700311218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04476493520742469</v>
+      </c>
+      <c r="E86">
+        <v>0.02914844411790565</v>
+      </c>
+      <c r="F86">
+        <v>-0.02356799572572272</v>
+      </c>
+      <c r="G86">
+        <v>0.01461110005964191</v>
+      </c>
+      <c r="H86">
+        <v>-0.04372388096593696</v>
+      </c>
+      <c r="I86">
+        <v>0.05049421434807658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1204878564470319</v>
+        <v>-0.1250907761601218</v>
       </c>
       <c r="C87">
-        <v>-0.07452770419113715</v>
+        <v>-0.008503130530032942</v>
       </c>
       <c r="D87">
-        <v>-0.06853720166085449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08278710906820655</v>
+      </c>
+      <c r="E87">
+        <v>0.02741911495396061</v>
+      </c>
+      <c r="F87">
+        <v>-0.02622474482389478</v>
+      </c>
+      <c r="G87">
+        <v>-0.151786200805087</v>
+      </c>
+      <c r="H87">
+        <v>-0.07972725047166769</v>
+      </c>
+      <c r="I87">
+        <v>0.001399109141462497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05619342150545435</v>
+        <v>-0.06417093472489589</v>
       </c>
       <c r="C88">
-        <v>-0.03492691173846667</v>
+        <v>-0.002549550285976757</v>
       </c>
       <c r="D88">
-        <v>-0.0264387328610205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04755354593146557</v>
+      </c>
+      <c r="E88">
+        <v>-0.0005353201473397621</v>
+      </c>
+      <c r="F88">
+        <v>-0.02247957655244129</v>
+      </c>
+      <c r="G88">
+        <v>-0.005484060790017006</v>
+      </c>
+      <c r="H88">
+        <v>0.03859377009213528</v>
+      </c>
+      <c r="I88">
+        <v>-0.01321147137033807</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07558811386509985</v>
+        <v>-0.1135291125059109</v>
       </c>
       <c r="C89">
-        <v>-0.04649514493836016</v>
+        <v>0.2714604694256762</v>
       </c>
       <c r="D89">
-        <v>0.3199878722902832</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2496366446602507</v>
+      </c>
+      <c r="E89">
+        <v>0.0454153557702942</v>
+      </c>
+      <c r="F89">
+        <v>-0.0797918113958402</v>
+      </c>
+      <c r="G89">
+        <v>0.02537040808962601</v>
+      </c>
+      <c r="H89">
+        <v>0.02329266134834405</v>
+      </c>
+      <c r="I89">
+        <v>-0.08027826503410065</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.0635750930422517</v>
+        <v>-0.08765676747290775</v>
       </c>
       <c r="C90">
-        <v>-0.02874961352311007</v>
+        <v>0.2084756422404866</v>
       </c>
       <c r="D90">
-        <v>0.2785147434408264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.208671041867182</v>
+      </c>
+      <c r="E90">
+        <v>0.04565825425435314</v>
+      </c>
+      <c r="F90">
+        <v>-0.03411147889734151</v>
+      </c>
+      <c r="G90">
+        <v>-0.03104991050942534</v>
+      </c>
+      <c r="H90">
+        <v>-0.0241130137719724</v>
+      </c>
+      <c r="I90">
+        <v>-0.07702172482627606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09316461291038068</v>
+        <v>-0.09129620945413568</v>
       </c>
       <c r="C91">
-        <v>-0.05228498064471702</v>
+        <v>0.004429919820360067</v>
       </c>
       <c r="D91">
-        <v>-0.00556365045484349</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0394729132063585</v>
+      </c>
+      <c r="E91">
+        <v>-0.0005084145269611415</v>
+      </c>
+      <c r="F91">
+        <v>-0.003644196898547203</v>
+      </c>
+      <c r="G91">
+        <v>0.01570135853682679</v>
+      </c>
+      <c r="H91">
+        <v>0.08706985303134522</v>
+      </c>
+      <c r="I91">
+        <v>0.04258238593085765</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06211143587689721</v>
+        <v>-0.08583946318955274</v>
       </c>
       <c r="C92">
-        <v>-0.03634419278930954</v>
+        <v>0.2400056507499596</v>
       </c>
       <c r="D92">
-        <v>0.3307828066952667</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2360624952326626</v>
+      </c>
+      <c r="E92">
+        <v>0.0487311883986526</v>
+      </c>
+      <c r="F92">
+        <v>-0.04567333772172563</v>
+      </c>
+      <c r="G92">
+        <v>-0.003681232099874455</v>
+      </c>
+      <c r="H92">
+        <v>0.03117052732983822</v>
+      </c>
+      <c r="I92">
+        <v>-0.02708534989567387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05281776170887769</v>
+        <v>-0.08257616113792197</v>
       </c>
       <c r="C93">
-        <v>-0.04393464408164054</v>
+        <v>0.2374288300298538</v>
       </c>
       <c r="D93">
-        <v>0.3083378434945073</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2119830009460409</v>
+      </c>
+      <c r="E93">
+        <v>0.009808195341908653</v>
+      </c>
+      <c r="F93">
+        <v>-0.03076193030784311</v>
+      </c>
+      <c r="G93">
+        <v>-0.02219977579153677</v>
+      </c>
+      <c r="H93">
+        <v>-0.00365847128220098</v>
+      </c>
+      <c r="I93">
+        <v>-0.01189398187844459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1312532971273408</v>
+        <v>-0.1272777106970227</v>
       </c>
       <c r="C94">
-        <v>-0.03505565940105313</v>
+        <v>-0.02290148603286644</v>
       </c>
       <c r="D94">
-        <v>-0.04616756551867892</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03999409884550594</v>
+      </c>
+      <c r="E94">
+        <v>-0.02340073156772112</v>
+      </c>
+      <c r="F94">
+        <v>-0.01472270878828288</v>
+      </c>
+      <c r="G94">
+        <v>0.03925422260073387</v>
+      </c>
+      <c r="H94">
+        <v>0.1074361789208065</v>
+      </c>
+      <c r="I94">
+        <v>-0.009998805705873316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1190099758323631</v>
+        <v>-0.1310987363850828</v>
       </c>
       <c r="C95">
-        <v>-0.02729965795207484</v>
+        <v>-0.03410447042515907</v>
       </c>
       <c r="D95">
-        <v>-0.0719887878817223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05805127505272314</v>
+      </c>
+      <c r="E95">
+        <v>0.003349293609832345</v>
+      </c>
+      <c r="F95">
+        <v>-0.05027552772920422</v>
+      </c>
+      <c r="G95">
+        <v>-0.03754720684167786</v>
+      </c>
+      <c r="H95">
+        <v>-0.09676740703305139</v>
+      </c>
+      <c r="I95">
+        <v>0.04754228106626594</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2343713172395241</v>
+        <v>-0.1940906696595328</v>
       </c>
       <c r="C97">
-        <v>-0.04843504152940967</v>
+        <v>0.01284177070646815</v>
       </c>
       <c r="D97">
-        <v>0.1245129836844682</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06495389841103266</v>
+      </c>
+      <c r="E97">
+        <v>0.048443061198196</v>
+      </c>
+      <c r="F97">
+        <v>0.9335020908237379</v>
+      </c>
+      <c r="G97">
+        <v>-0.07977024795547981</v>
+      </c>
+      <c r="H97">
+        <v>-0.01503561946173984</v>
+      </c>
+      <c r="I97">
+        <v>-0.03260830718309763</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2467252590052084</v>
+        <v>-0.2793924795919354</v>
       </c>
       <c r="C98">
-        <v>-0.05731397243659907</v>
+        <v>-0.009143170636141335</v>
       </c>
       <c r="D98">
-        <v>-0.01153575059575916</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04293049032843465</v>
+      </c>
+      <c r="E98">
+        <v>-0.2079010166363675</v>
+      </c>
+      <c r="F98">
+        <v>-0.006052894615501157</v>
+      </c>
+      <c r="G98">
+        <v>0.3178358028382905</v>
+      </c>
+      <c r="H98">
+        <v>-0.1685679332450316</v>
+      </c>
+      <c r="I98">
+        <v>0.5644922497029535</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.4098917529129325</v>
+        <v>-0.2578266840569714</v>
       </c>
       <c r="C99">
-        <v>0.8935498920521642</v>
+        <v>-0.7192768529154531</v>
       </c>
       <c r="D99">
-        <v>-0.005205159371987941</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.6104266787488246</v>
+      </c>
+      <c r="E99">
+        <v>0.08362431041693295</v>
+      </c>
+      <c r="F99">
+        <v>-0.08568331127677739</v>
+      </c>
+      <c r="G99">
+        <v>0.003983161171722111</v>
+      </c>
+      <c r="H99">
+        <v>0.07517678254409549</v>
+      </c>
+      <c r="I99">
+        <v>-0.001339674785974959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.04577946764937463</v>
+        <v>-0.05113129911555809</v>
       </c>
       <c r="C101">
-        <v>-0.0407070190033948</v>
+        <v>0.02003685165109833</v>
       </c>
       <c r="D101">
-        <v>-0.0004058138625013729</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02944925163067931</v>
+      </c>
+      <c r="E101">
+        <v>0.04356614767455155</v>
+      </c>
+      <c r="F101">
+        <v>-0.02811017160458613</v>
+      </c>
+      <c r="G101">
+        <v>-0.006624866091064799</v>
+      </c>
+      <c r="H101">
+        <v>0.0942461568907015</v>
+      </c>
+      <c r="I101">
+        <v>-0.008018626162769082</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
